--- a/pred_ohlcv/54_21/2020-01-22 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 HC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-6325.5095</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-9008.996300000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-9008.496300000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-9431.519100000001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-9456.385500000002</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-9283.385500000002</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-9391.136100000002</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-10059.9843</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-24235.34040000001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-24861.07860000001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-25874.25170000001</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-25494.83630000001</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-30739.45010000001</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-31946.44500000001</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-31414.44500000001</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-32614.44500000001</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-32614.44500000001</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-33814.44500000001</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-33803.44500000001</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-35003.44500000001</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-35003.44500000001</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-35002.44500000001</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-36202.44500000001</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-36201.44500000001</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-36130.44500000001</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-36129.94500000001</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-36153.04490000001</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-36119.04490000001</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-37319.04490000001</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 HC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-6325.819500000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-6325.5095</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8393.254300000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-9008.996300000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-9008.496300000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-8995.619200000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-9431.519100000001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-9456.385500000002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-9283.385500000002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-9283.385500000002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-9391.136100000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-9390.636100000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-9411.516100000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-9411.516100000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-9700.794300000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-10060.7943</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-10059.9843</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-10059.4842</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-20059.4842</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-20058.4842</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-20078.4902</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-20077.9902</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-20077.9902</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-21674.5638</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-24235.34040000001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-24861.07860000001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-32614.44500000001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-33814.44500000001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-33803.44500000001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-35003.44500000001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-35003.44500000001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-35002.44500000001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-36202.44500000001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-36201.44500000001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-36200.44500000001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-36130.44500000001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-36129.94500000001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-36153.04490000001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-36119.04490000001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-37319.04490000001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
